--- a/Progress Report.xlsx
+++ b/Progress Report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ombad\OneDrive\Documents\GitHub\Veh_Safety_CAN_IoT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D354CC6B-AF6E-4DBF-A82B-04A1E649C5FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC3381DF-650E-4568-85E9-7CA90AED9248}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{CF6FD7CF-D63D-43E8-81D0-E7C0115A0145}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="18">
   <si>
     <t>Group Members</t>
   </si>
@@ -87,6 +87,9 @@
   </si>
   <si>
     <t>MM/DD/YYYY</t>
+  </si>
+  <si>
+    <t>Search Component to preferd for our stm32 board and  contact with component dealer.</t>
   </si>
 </sst>
 </file>
@@ -225,10 +228,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -547,8 +550,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07309C4B-15A6-456A-BFB2-FA2B510AC754}">
   <dimension ref="A1:E34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -561,24 +564,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
     </row>
     <row r="2" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
     </row>
     <row r="3" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
@@ -762,7 +765,9 @@
         <v>45251</v>
       </c>
       <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
+      <c r="C18" s="3" t="s">
+        <v>17</v>
+      </c>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
     </row>

--- a/Progress Report.xlsx
+++ b/Progress Report.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="23">
   <si>
     <t xml:space="preserve">Progress Report</t>
   </si>
@@ -77,17 +77,30 @@
   </si>
   <si>
     <t xml:space="preserve">can </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.CAN protocol reference model layers          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. CAN bus , recessive bits , dominant bus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.CAN frame structure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4. CAN network topology</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
+    <numFmt numFmtId="166" formatCode="dd/mm/yy"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -129,14 +142,6 @@
     <font>
       <b val="true"/>
       <sz val="14"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -259,8 +264,8 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -340,13 +345,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E34"/>
+  <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A12" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D20" activeCellId="0" sqref="D20"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B34" activeCellId="0" sqref="B34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="13.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="44.44"/>
@@ -700,8 +705,31 @@
       <c r="D33" s="7"/>
       <c r="E33" s="7"/>
     </row>
-    <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="9"/>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="9" t="n">
+        <v>45285</v>
+      </c>
+      <c r="B34" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0"/>
+      <c r="B35" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0"/>
+      <c r="B36" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0"/>
+      <c r="B37" s="0" t="s">
+        <v>22</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Progress Report.xlsx
+++ b/Progress Report.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="28">
   <si>
     <t xml:space="preserve">Progress Report</t>
   </si>
@@ -76,31 +76,63 @@
     <t xml:space="preserve">Search Component to preferd for our stm32 board and  contact with component dealer.</t>
   </si>
   <si>
-    <t xml:space="preserve">can </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.CAN protocol reference model layers          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2. CAN bus , recessive bits , dominant bus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.CAN frame structure</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4. CAN network topology</t>
+    <t xml:space="preserve">.........</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                 ...........</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                              ...........</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                            ...........</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                             ...........</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">CAN protocol reference model layers ,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">CAN bus , recessive bits , dominant bus</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">CAN frame structure and CAN network topology</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Read the datasheet of LM393 Rain water sensor &amp; pin configuration is done with STM board.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Read the obtainable value of LM393 with ADC .See the ADC and UART code.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Done the coding of LM393 Rain Water Sesor using ADC and UART And upload on Git.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
-    <numFmt numFmtId="166" formatCode="dd/mm/yy"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -142,6 +174,20 @@
     <font>
       <b val="true"/>
       <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -227,7 +273,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -264,8 +310,12 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -345,10 +395,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E37"/>
+  <dimension ref="A1:E34"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B34" activeCellId="0" sqref="B34"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A8" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B22" activeCellId="0" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -569,46 +619,60 @@
       <c r="E18" s="7"/>
     </row>
     <row r="19" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="5" t="n">
-        <v>45252</v>
-      </c>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
+      <c r="A19" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="5" t="n">
-        <v>45253</v>
-      </c>
-      <c r="B20" s="7"/>
+        <v>45285</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>23</v>
+      </c>
       <c r="C20" s="7"/>
-      <c r="D20" s="7" t="s">
-        <v>18</v>
-      </c>
+      <c r="D20" s="7"/>
       <c r="E20" s="7"/>
     </row>
     <row r="21" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="5" t="n">
-        <v>45254</v>
-      </c>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
+        <v>45286</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>25</v>
+      </c>
       <c r="D21" s="7"/>
       <c r="E21" s="7"/>
     </row>
     <row r="22" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="5" t="n">
-        <v>45255</v>
+        <v>45287</v>
       </c>
       <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
+      <c r="C22" s="7" t="s">
+        <v>26</v>
+      </c>
       <c r="D22" s="7"/>
       <c r="E22" s="7"/>
     </row>
     <row r="23" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="5" t="n">
-        <v>45256</v>
+        <v>45288</v>
       </c>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
@@ -617,16 +681,18 @@
     </row>
     <row r="24" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="5" t="n">
-        <v>45257</v>
+        <v>45289</v>
       </c>
       <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
+      <c r="C24" s="7" t="s">
+        <v>27</v>
+      </c>
       <c r="D24" s="7"/>
       <c r="E24" s="7"/>
     </row>
     <row r="25" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="5" t="n">
-        <v>45258</v>
+        <v>45290</v>
       </c>
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
@@ -635,7 +701,7 @@
     </row>
     <row r="26" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="5" t="n">
-        <v>45259</v>
+        <v>45291</v>
       </c>
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
@@ -644,7 +710,7 @@
     </row>
     <row r="27" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="5" t="n">
-        <v>45260</v>
+        <v>45292</v>
       </c>
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
@@ -653,7 +719,7 @@
     </row>
     <row r="28" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="5" t="n">
-        <v>45261</v>
+        <v>45293</v>
       </c>
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
@@ -662,7 +728,7 @@
     </row>
     <row r="29" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="5" t="n">
-        <v>45262</v>
+        <v>45294</v>
       </c>
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
@@ -671,7 +737,7 @@
     </row>
     <row r="30" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="5" t="n">
-        <v>45263</v>
+        <v>45295</v>
       </c>
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
@@ -680,7 +746,7 @@
     </row>
     <row r="31" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="5" t="n">
-        <v>45264</v>
+        <v>45296</v>
       </c>
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
@@ -689,7 +755,7 @@
     </row>
     <row r="32" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="5" t="n">
-        <v>45265</v>
+        <v>45297</v>
       </c>
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
@@ -698,38 +764,15 @@
     </row>
     <row r="33" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="5" t="n">
-        <v>45266</v>
+        <v>45298</v>
       </c>
       <c r="B33" s="7"/>
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
       <c r="E33" s="7"/>
     </row>
-    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="9" t="n">
-        <v>45285</v>
-      </c>
-      <c r="B34" s="0" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0"/>
-      <c r="B35" s="0" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0"/>
-      <c r="B36" s="0" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0"/>
-      <c r="B37" s="0" t="s">
-        <v>22</v>
-      </c>
+    <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Progress Report.xlsx
+++ b/Progress Report.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="29">
   <si>
     <t xml:space="preserve">Progress Report</t>
   </si>
@@ -91,25 +91,7 @@
     <t xml:space="preserve">                             ...........</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">CAN protocol reference model layers ,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">CAN bus , recessive bits , dominant bus</t>
-    </r>
+    <t xml:space="preserve">CAN protocol reference model layers ,CAN bus , recessive bits , dominant bus</t>
   </si>
   <si>
     <t xml:space="preserve">CAN frame structure and CAN network topology</t>
@@ -122,6 +104,9 @@
   </si>
   <si>
     <t xml:space="preserve">Done the coding of LM393 Rain Water Sesor using ADC and UART And upload on Git.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reading can specification given by bosch and collecting info about tansmitter and reciever mcp 2551</t>
   </si>
 </sst>
 </file>
@@ -132,7 +117,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -178,12 +163,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <b val="true"/>
@@ -273,7 +252,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -310,11 +289,7 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -397,8 +372,8 @@
   </sheetPr>
   <dimension ref="A1:E34"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A8" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B22" activeCellId="0" sqref="B22"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A17" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A30" activeCellId="0" sqref="30:30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -650,7 +625,7 @@
       <c r="A21" s="5" t="n">
         <v>45286</v>
       </c>
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="7" t="s">
         <v>24</v>
       </c>
       <c r="C21" s="7" t="s">
@@ -726,20 +701,13 @@
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
     </row>
-    <row r="29" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="5" t="n">
+    <row r="30" customFormat="false" ht="42.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A30" s="5" t="n">
         <v>45294</v>
       </c>
-      <c r="B29" s="7"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
-    </row>
-    <row r="30" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="5" t="n">
-        <v>45295</v>
-      </c>
-      <c r="B30" s="7"/>
+      <c r="B30" s="7" t="s">
+        <v>28</v>
+      </c>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
       <c r="E30" s="7"/>
@@ -772,7 +740,7 @@
       <c r="E33" s="7"/>
     </row>
     <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="10"/>
+      <c r="A34" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Progress Report.xlsx
+++ b/Progress Report.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="30">
   <si>
     <t xml:space="preserve">Progress Report</t>
   </si>
@@ -107,6 +107,9 @@
   </si>
   <si>
     <t xml:space="preserve">reading can specification given by bosch and collecting info about tansmitter and reciever mcp 2551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reading about temperature sensor LM35 and DS18B20 Water proof tempearature sensor</t>
   </si>
 </sst>
 </file>
@@ -117,7 +120,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -163,6 +166,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b val="true"/>
@@ -252,7 +261,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -289,7 +298,11 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -372,8 +385,8 @@
   </sheetPr>
   <dimension ref="A1:E34"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A17" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A30" activeCellId="0" sqref="30:30"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A20" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D30" activeCellId="0" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -709,7 +722,9 @@
         <v>28</v>
       </c>
       <c r="C30" s="7"/>
-      <c r="D30" s="7"/>
+      <c r="D30" s="9" t="s">
+        <v>29</v>
+      </c>
       <c r="E30" s="7"/>
     </row>
     <row r="31" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -740,7 +755,7 @@
       <c r="E33" s="7"/>
     </row>
     <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="9"/>
+      <c r="A34" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Progress Report.xlsx
+++ b/Progress Report.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="31">
   <si>
     <t xml:space="preserve">Progress Report</t>
   </si>
@@ -110,6 +110,9 @@
   </si>
   <si>
     <t xml:space="preserve">Reading about temperature sensor LM35 and DS18B20 Water proof tempearature sensor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADC and UART sensor code done</t>
   </si>
 </sst>
 </file>
@@ -120,7 +123,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -166,12 +169,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <b val="true"/>
@@ -261,7 +258,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -298,11 +295,7 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -385,8 +378,8 @@
   </sheetPr>
   <dimension ref="A1:E34"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A20" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D30" activeCellId="0" sqref="D30"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A23" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D33" activeCellId="0" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -722,7 +715,7 @@
         <v>28</v>
       </c>
       <c r="C30" s="7"/>
-      <c r="D30" s="9" t="s">
+      <c r="D30" s="7" t="s">
         <v>29</v>
       </c>
       <c r="E30" s="7"/>
@@ -751,11 +744,13 @@
       </c>
       <c r="B33" s="7"/>
       <c r="C33" s="7"/>
-      <c r="D33" s="7"/>
+      <c r="D33" s="7" t="s">
+        <v>30</v>
+      </c>
       <c r="E33" s="7"/>
     </row>
     <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="10"/>
+      <c r="A34" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Progress Report.xlsx
+++ b/Progress Report.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="33">
   <si>
     <t xml:space="preserve">Progress Report</t>
   </si>
@@ -113,6 +113,12 @@
   </si>
   <si>
     <t xml:space="preserve">ADC and UART sensor code done</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Merge the sensor code in Final_sens_intr directory.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Project Evolution -2</t>
   </si>
 </sst>
 </file>
@@ -171,15 +177,13 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -216,6 +220,12 @@
         <bgColor rgb="FF9DC3E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFA6"/>
+        <bgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border diagonalUp="false" diagonalDown="false">
@@ -258,7 +268,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -295,8 +305,16 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -345,7 +363,7 @@
       <rgbColor rgb="FF00CCFF"/>
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FFCCFFCC"/>
-      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FFFFFFA6"/>
       <rgbColor rgb="FF9DC3E6"/>
       <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
@@ -376,10 +394,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E34"/>
+  <dimension ref="A1:E1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A23" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D33" activeCellId="0" sqref="D33"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A15" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -707,22 +725,31 @@
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
     </row>
-    <row r="30" customFormat="false" ht="42.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="42.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A29" s="5" t="n">
+        <v>45294</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E29" s="7"/>
+    </row>
+    <row r="30" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="5" t="n">
-        <v>45294</v>
-      </c>
-      <c r="B30" s="7" t="s">
-        <v>28</v>
-      </c>
+        <v>45296</v>
+      </c>
+      <c r="B30" s="7"/>
       <c r="C30" s="7"/>
-      <c r="D30" s="7" t="s">
-        <v>29</v>
-      </c>
+      <c r="D30" s="7"/>
       <c r="E30" s="7"/>
     </row>
     <row r="31" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="5" t="n">
-        <v>45296</v>
+        <v>45297</v>
       </c>
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
@@ -731,27 +758,242 @@
     </row>
     <row r="32" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="5" t="n">
-        <v>45297</v>
+        <v>45298</v>
       </c>
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
-      <c r="D32" s="7"/>
+      <c r="D32" s="7" t="s">
+        <v>30</v>
+      </c>
       <c r="E32" s="7"/>
     </row>
-    <row r="33" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="5" t="n">
-        <v>45298</v>
+        <v>45299</v>
       </c>
       <c r="B33" s="7"/>
       <c r="C33" s="7"/>
-      <c r="D33" s="7" t="s">
-        <v>30</v>
-      </c>
+      <c r="D33" s="7"/>
       <c r="E33" s="7"/>
     </row>
-    <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="9"/>
-    </row>
+    <row r="34" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A34" s="5" t="n">
+        <v>45300</v>
+      </c>
+      <c r="B34" s="7"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+    </row>
+    <row r="35" customFormat="false" ht="29.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A35" s="5" t="n">
+        <v>45301</v>
+      </c>
+      <c r="B35" s="7"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+    </row>
+    <row r="36" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A36" s="5" t="n">
+        <v>45302</v>
+      </c>
+      <c r="B36" s="7"/>
+      <c r="C36" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
+    </row>
+    <row r="37" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A37" s="10" t="n">
+        <v>45303</v>
+      </c>
+      <c r="B37" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C37" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D37" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="E37" s="11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A38" s="5" t="n">
+        <v>45304</v>
+      </c>
+      <c r="B38" s="7"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7"/>
+    </row>
+    <row r="39" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A39" s="5" t="n">
+        <v>45305</v>
+      </c>
+      <c r="B39" s="7"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7"/>
+    </row>
+    <row r="40" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A40" s="5" t="n">
+        <v>45306</v>
+      </c>
+      <c r="B40" s="7"/>
+      <c r="C40" s="7"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="7"/>
+    </row>
+    <row r="41" customFormat="false" ht="29.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A41" s="5" t="n">
+        <v>45307</v>
+      </c>
+      <c r="B41" s="7"/>
+      <c r="C41" s="7"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="7"/>
+    </row>
+    <row r="42" customFormat="false" ht="29.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A42" s="5" t="n">
+        <v>45308</v>
+      </c>
+      <c r="B42" s="7"/>
+      <c r="C42" s="7"/>
+      <c r="D42" s="7"/>
+      <c r="E42" s="7"/>
+    </row>
+    <row r="43" customFormat="false" ht="29.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A43" s="5" t="n">
+        <v>45309</v>
+      </c>
+      <c r="B43" s="7"/>
+      <c r="C43" s="7"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="7"/>
+    </row>
+    <row r="44" customFormat="false" ht="29.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A44" s="5" t="n">
+        <v>45310</v>
+      </c>
+      <c r="B44" s="7"/>
+      <c r="C44" s="7"/>
+      <c r="D44" s="7"/>
+      <c r="E44" s="7"/>
+    </row>
+    <row r="45" customFormat="false" ht="29.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A45" s="5" t="n">
+        <v>45311</v>
+      </c>
+      <c r="B45" s="7"/>
+      <c r="C45" s="7"/>
+      <c r="D45" s="7"/>
+      <c r="E45" s="7"/>
+    </row>
+    <row r="46" customFormat="false" ht="29.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A46" s="5" t="n">
+        <v>45312</v>
+      </c>
+      <c r="B46" s="7"/>
+      <c r="C46" s="7"/>
+      <c r="D46" s="7"/>
+      <c r="E46" s="7"/>
+    </row>
+    <row r="47" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A47" s="5" t="n">
+        <v>45313</v>
+      </c>
+      <c r="B47" s="7"/>
+      <c r="C47" s="7"/>
+      <c r="D47" s="7"/>
+      <c r="E47" s="7"/>
+    </row>
+    <row r="48" customFormat="false" ht="29.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A48" s="5" t="n">
+        <v>45314</v>
+      </c>
+      <c r="B48" s="7"/>
+      <c r="C48" s="7"/>
+      <c r="D48" s="7"/>
+      <c r="E48" s="7"/>
+    </row>
+    <row r="49" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A49" s="5" t="n">
+        <v>45315</v>
+      </c>
+      <c r="B49" s="7"/>
+      <c r="C49" s="7"/>
+      <c r="D49" s="7"/>
+      <c r="E49" s="7"/>
+    </row>
+    <row r="50" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A50" s="5" t="n">
+        <v>45316</v>
+      </c>
+      <c r="B50" s="7"/>
+      <c r="C50" s="7"/>
+      <c r="D50" s="7"/>
+      <c r="E50" s="7"/>
+    </row>
+    <row r="51" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A51" s="5" t="n">
+        <v>45317</v>
+      </c>
+      <c r="B51" s="7"/>
+      <c r="C51" s="7"/>
+      <c r="D51" s="7"/>
+      <c r="E51" s="7"/>
+    </row>
+    <row r="52" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A52" s="5" t="n">
+        <v>45318</v>
+      </c>
+      <c r="B52" s="7"/>
+      <c r="C52" s="7"/>
+      <c r="D52" s="7"/>
+      <c r="E52" s="7"/>
+    </row>
+    <row r="53" customFormat="false" ht="30.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A53" s="5" t="n">
+        <v>45319</v>
+      </c>
+      <c r="B53" s="7"/>
+      <c r="C53" s="7"/>
+      <c r="D53" s="7"/>
+      <c r="E53" s="7"/>
+    </row>
+    <row r="54" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A54" s="5" t="n">
+        <v>45320</v>
+      </c>
+      <c r="B54" s="7"/>
+      <c r="C54" s="7"/>
+      <c r="D54" s="7"/>
+      <c r="E54" s="7"/>
+    </row>
+    <row r="55" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A55" s="5" t="n">
+        <v>45321</v>
+      </c>
+      <c r="B55" s="7"/>
+      <c r="C55" s="7"/>
+      <c r="D55" s="7"/>
+      <c r="E55" s="7"/>
+    </row>
+    <row r="56" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A56" s="5" t="n">
+        <v>45322</v>
+      </c>
+      <c r="B56" s="7"/>
+      <c r="C56" s="7"/>
+      <c r="D56" s="7"/>
+      <c r="E56" s="7"/>
+    </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:E1"/>

--- a/Progress Report.xlsx
+++ b/Progress Report.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="35">
   <si>
     <t xml:space="preserve">Progress Report</t>
   </si>
@@ -115,7 +115,13 @@
     <t xml:space="preserve">ADC and UART sensor code done</t>
   </si>
   <si>
+    <t xml:space="preserve">reading about can filter and logical characteristics</t>
+  </si>
+  <si>
     <t xml:space="preserve">Merge the sensor code in Final_sens_intr directory.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Project Evaluation-2 and basic code of CAN communication is done with LED </t>
   </si>
   <si>
     <t xml:space="preserve">Project Evolution -2</t>
@@ -129,7 +135,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -175,12 +181,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="8">
@@ -268,7 +268,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -305,15 +305,11 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -396,8 +392,8 @@
   </sheetPr>
   <dimension ref="A1:E1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A15" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A30" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B37" activeCellId="0" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -798,28 +794,30 @@
       <c r="A36" s="5" t="n">
         <v>45302</v>
       </c>
-      <c r="B36" s="7"/>
-      <c r="C36" s="9" t="s">
+      <c r="B36" s="7" t="s">
         <v>31</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>32</v>
       </c>
       <c r="D36" s="7"/>
       <c r="E36" s="7"/>
     </row>
     <row r="37" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="10" t="n">
+      <c r="A37" s="9" t="n">
         <v>45303</v>
       </c>
-      <c r="B37" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="C37" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="D37" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="E37" s="11" t="s">
-        <v>32</v>
+      <c r="B37" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C37" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D37" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="E37" s="10" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">

--- a/Progress Report.xlsx
+++ b/Progress Report.xlsx
@@ -31,7 +31,7 @@
     <t xml:space="preserve">Group Members</t>
   </si>
   <si>
-    <t xml:space="preserve">MM/DD/YYYY</t>
+    <t xml:space="preserve">DD/MM/YYYY</t>
   </si>
   <si>
     <t xml:space="preserve">Sameer Kalmegh</t>
@@ -165,7 +165,6 @@
       <color rgb="FF002060"/>
       <name val="Bodoni MT"/>
       <family val="1"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="14"/>
@@ -278,7 +277,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -392,8 +391,8 @@
   </sheetPr>
   <dimension ref="A1:E1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A30" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B37" activeCellId="0" sqref="B37"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -405,7 +404,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="44.33"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>

--- a/Progress Report.xlsx
+++ b/Progress Report.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ombad\OneDrive\Documents\GitHub\Veh_Safety_CAN_IoT\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B0AE56E-A46D-4FD3-9B8C-1BF358B27A1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -20,63 +25,63 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="35">
-  <si>
-    <t xml:space="preserve">Progress Report</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Group Members</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DD/MM/YYYY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sameer Kalmegh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Om Badgujar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Payal Dukare</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sanket Lonkar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Circuit and  and also refer on refernce paper.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Circuit and  and also refer on refernce paper</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Component Discussion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Interfacing of STM32F407 with LM35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find Rain Water sensor(LM393) configuration with STM32F407.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Searching abot CAN protocol</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IoT connection with ESP8266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Read CAN Protocol with STM32F407</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Made a Block Diagram of Master and Slave Node. (Blueprint) and on git with name "Blockdiagram-1".</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Search Component to preferd for our stm32 board and  contact with component dealer.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">.........</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="38">
+  <si>
+    <t>Progress Report</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Group Members</t>
+  </si>
+  <si>
+    <t>DD/MM/YYYY</t>
+  </si>
+  <si>
+    <t>Sameer Kalmegh</t>
+  </si>
+  <si>
+    <t>Om Badgujar</t>
+  </si>
+  <si>
+    <t>Payal Dukare</t>
+  </si>
+  <si>
+    <t>Sanket Lonkar</t>
+  </si>
+  <si>
+    <t>Circuit and  and also refer on refernce paper.</t>
+  </si>
+  <si>
+    <t>Circuit and  and also refer on refernce paper</t>
+  </si>
+  <si>
+    <t>Component Discussion</t>
+  </si>
+  <si>
+    <t>Interfacing of STM32F407 with LM35</t>
+  </si>
+  <si>
+    <t>Find Rain Water sensor(LM393) configuration with STM32F407.</t>
+  </si>
+  <si>
+    <t>Searching abot CAN protocol</t>
+  </si>
+  <si>
+    <t>IoT connection with ESP8266</t>
+  </si>
+  <si>
+    <t>Read CAN Protocol with STM32F407</t>
+  </si>
+  <si>
+    <t>Made a Block Diagram of Master and Slave Node. (Blueprint) and on git with name "Blockdiagram-1".</t>
+  </si>
+  <si>
+    <t>Search Component to preferd for our stm32 board and  contact with component dealer.</t>
+  </si>
+  <si>
+    <t>.........</t>
   </si>
   <si>
     <t xml:space="preserve">                                 ...........</t>
@@ -91,51 +96,59 @@
     <t xml:space="preserve">                             ...........</t>
   </si>
   <si>
-    <t xml:space="preserve">CAN protocol reference model layers ,CAN bus , recessive bits , dominant bus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAN frame structure and CAN network topology</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Read the datasheet of LM393 Rain water sensor &amp; pin configuration is done with STM board.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Read the obtainable value of LM393 with ADC .See the ADC and UART code.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Done the coding of LM393 Rain Water Sesor using ADC and UART And upload on Git.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reading can specification given by bosch and collecting info about tansmitter and reciever mcp 2551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reading about temperature sensor LM35 and DS18B20 Water proof tempearature sensor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ADC and UART sensor code done</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reading about can filter and logical characteristics</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Merge the sensor code in Final_sens_intr directory.</t>
+    <t>CAN protocol reference model layers ,CAN bus , recessive bits , dominant bus</t>
+  </si>
+  <si>
+    <t>CAN frame structure and CAN network topology</t>
+  </si>
+  <si>
+    <t>Read the datasheet of LM393 Rain water sensor &amp; pin configuration is done with STM board.</t>
+  </si>
+  <si>
+    <t>Read the obtainable value of LM393 with ADC .See the ADC and UART code.</t>
+  </si>
+  <si>
+    <t>Done the coding of LM393 Rain Water Sesor using ADC and UART And upload on Git.</t>
+  </si>
+  <si>
+    <t>reading can specification given by bosch and collecting info about tansmitter and reciever mcp 2551</t>
+  </si>
+  <si>
+    <t>Reading about temperature sensor LM35 and DS18B20 Water proof tempearature sensor</t>
+  </si>
+  <si>
+    <t>ADC and UART sensor code done</t>
+  </si>
+  <si>
+    <t>reading about can filter and logical characteristics</t>
+  </si>
+  <si>
+    <t>Merge the sensor code in Final_sens_intr directory.</t>
   </si>
   <si>
     <t xml:space="preserve">  Project Evaluation-2 and basic code of CAN communication is done with LED </t>
   </si>
   <si>
-    <t xml:space="preserve">Project Evolution -2</t>
+    <t>Project Evolution -2</t>
+  </si>
+  <si>
+    <t>Rebuilt Tx-Rx code and put the Sensor code of Rain water in main code name as "CAN VERSION2".</t>
+  </si>
+  <si>
+    <t>Find the Bugg in CAN Tx - Rx code code name is "CAN VERSION1".</t>
+  </si>
+  <si>
+    <t>Work on CAN project .</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -144,23 +157,8 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <i val="true"/>
+      <b/>
+      <i/>
       <sz val="20"/>
       <color rgb="FF002060"/>
       <name val="Bodoni MT"/>
@@ -174,7 +172,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -227,100 +225,70 @@
     </fill>
   </fills>
   <borders count="2">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="11">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -379,32 +347,340 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:E1048576"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E56"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="13.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="44.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="44.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="44.55"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="44.33"/>
+    <col min="1" max="1" width="13.109375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="44.44140625" customWidth="1"/>
+    <col min="3" max="3" width="44.77734375" customWidth="1"/>
+    <col min="4" max="4" width="44.5546875" customWidth="1"/>
+    <col min="5" max="5" width="44.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:5" ht="31.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -413,18 +689,18 @@
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
     </row>
-    <row r="2" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-    </row>
-    <row r="3" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>3</v>
       </c>
@@ -441,8 +717,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="5" t="n">
+    <row r="4" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="5">
         <v>45237</v>
       </c>
       <c r="B4" s="7" t="s">
@@ -458,8 +734,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="5" t="n">
+    <row r="5" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="5">
         <v>45238</v>
       </c>
       <c r="B5" s="7" t="s">
@@ -475,8 +751,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="5" t="n">
+    <row r="6" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="5">
         <v>45239</v>
       </c>
       <c r="B6" s="7"/>
@@ -484,8 +760,8 @@
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
     </row>
-    <row r="7" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="5" t="n">
+    <row r="7" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="5">
         <v>45240</v>
       </c>
       <c r="B7" s="7" t="s">
@@ -495,8 +771,8 @@
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
     </row>
-    <row r="8" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="5" t="n">
+    <row r="8" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="5">
         <v>45241</v>
       </c>
       <c r="B8" s="7"/>
@@ -506,8 +782,8 @@
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
     </row>
-    <row r="9" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="5" t="n">
+    <row r="9" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="5">
         <v>45242</v>
       </c>
       <c r="B9" s="7"/>
@@ -515,8 +791,8 @@
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
     </row>
-    <row r="10" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="5" t="n">
+    <row r="10" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="5">
         <v>45243</v>
       </c>
       <c r="B10" s="7"/>
@@ -526,8 +802,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="5" t="n">
+    <row r="11" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="5">
         <v>45244</v>
       </c>
       <c r="B11" s="7"/>
@@ -537,8 +813,8 @@
       </c>
       <c r="E11" s="7"/>
     </row>
-    <row r="12" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="5" t="n">
+    <row r="12" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="5">
         <v>45245</v>
       </c>
       <c r="B12" s="7" t="s">
@@ -554,8 +830,8 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="5" t="n">
+    <row r="13" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="5">
         <v>45246</v>
       </c>
       <c r="B13" s="7"/>
@@ -563,8 +839,8 @@
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
     </row>
-    <row r="14" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="5" t="n">
+    <row r="14" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="5">
         <v>45247</v>
       </c>
       <c r="B14" s="7"/>
@@ -572,8 +848,8 @@
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
     </row>
-    <row r="15" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="5" t="n">
+    <row r="15" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="5">
         <v>45248</v>
       </c>
       <c r="B15" s="7"/>
@@ -581,8 +857,8 @@
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
     </row>
-    <row r="16" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="5" t="n">
+    <row r="16" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="5">
         <v>45249</v>
       </c>
       <c r="B16" s="7"/>
@@ -590,8 +866,8 @@
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>
     </row>
-    <row r="17" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="5" t="n">
+    <row r="17" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="5">
         <v>45250</v>
       </c>
       <c r="B17" s="7"/>
@@ -601,8 +877,8 @@
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
     </row>
-    <row r="18" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="5" t="n">
+    <row r="18" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="5">
         <v>45251</v>
       </c>
       <c r="B18" s="7"/>
@@ -612,7 +888,7 @@
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
     </row>
-    <row r="19" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
         <v>18</v>
       </c>
@@ -629,8 +905,8 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="5" t="n">
+    <row r="20" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="5">
         <v>45285</v>
       </c>
       <c r="B20" s="7" t="s">
@@ -640,8 +916,8 @@
       <c r="D20" s="7"/>
       <c r="E20" s="7"/>
     </row>
-    <row r="21" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="5" t="n">
+    <row r="21" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="5">
         <v>45286</v>
       </c>
       <c r="B21" s="7" t="s">
@@ -653,8 +929,8 @@
       <c r="D21" s="7"/>
       <c r="E21" s="7"/>
     </row>
-    <row r="22" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="5" t="n">
+    <row r="22" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="5">
         <v>45287</v>
       </c>
       <c r="B22" s="7"/>
@@ -664,8 +940,8 @@
       <c r="D22" s="7"/>
       <c r="E22" s="7"/>
     </row>
-    <row r="23" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="5" t="n">
+    <row r="23" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="5">
         <v>45288</v>
       </c>
       <c r="B23" s="7"/>
@@ -673,8 +949,8 @@
       <c r="D23" s="7"/>
       <c r="E23" s="7"/>
     </row>
-    <row r="24" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="5" t="n">
+    <row r="24" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="5">
         <v>45289</v>
       </c>
       <c r="B24" s="7"/>
@@ -684,8 +960,8 @@
       <c r="D24" s="7"/>
       <c r="E24" s="7"/>
     </row>
-    <row r="25" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="5" t="n">
+    <row r="25" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="5">
         <v>45290</v>
       </c>
       <c r="B25" s="7"/>
@@ -693,8 +969,8 @@
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
     </row>
-    <row r="26" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="5" t="n">
+    <row r="26" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="5">
         <v>45291</v>
       </c>
       <c r="B26" s="7"/>
@@ -702,8 +978,8 @@
       <c r="D26" s="7"/>
       <c r="E26" s="7"/>
     </row>
-    <row r="27" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="5" t="n">
+    <row r="27" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="5">
         <v>45292</v>
       </c>
       <c r="B27" s="7"/>
@@ -711,8 +987,8 @@
       <c r="D27" s="7"/>
       <c r="E27" s="7"/>
     </row>
-    <row r="28" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="5" t="n">
+    <row r="28" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="5">
         <v>45293</v>
       </c>
       <c r="B28" s="7"/>
@@ -720,8 +996,8 @@
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
     </row>
-    <row r="29" customFormat="false" ht="42.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="5" t="n">
+    <row r="29" spans="1:5" ht="42.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="5">
         <v>45294</v>
       </c>
       <c r="B29" s="7" t="s">
@@ -733,8 +1009,8 @@
       </c>
       <c r="E29" s="7"/>
     </row>
-    <row r="30" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="5" t="n">
+    <row r="30" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="5">
         <v>45296</v>
       </c>
       <c r="B30" s="7"/>
@@ -742,8 +1018,8 @@
       <c r="D30" s="7"/>
       <c r="E30" s="7"/>
     </row>
-    <row r="31" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="5" t="n">
+    <row r="31" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="5">
         <v>45297</v>
       </c>
       <c r="B31" s="7"/>
@@ -751,8 +1027,8 @@
       <c r="D31" s="7"/>
       <c r="E31" s="7"/>
     </row>
-    <row r="32" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="5" t="n">
+    <row r="32" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="5">
         <v>45298</v>
       </c>
       <c r="B32" s="7"/>
@@ -762,8 +1038,8 @@
       </c>
       <c r="E32" s="7"/>
     </row>
-    <row r="33" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="5" t="n">
+    <row r="33" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="5">
         <v>45299</v>
       </c>
       <c r="B33" s="7"/>
@@ -771,8 +1047,8 @@
       <c r="D33" s="7"/>
       <c r="E33" s="7"/>
     </row>
-    <row r="34" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="5" t="n">
+    <row r="34" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="5">
         <v>45300</v>
       </c>
       <c r="B34" s="7"/>
@@ -780,8 +1056,8 @@
       <c r="D34" s="7"/>
       <c r="E34" s="7"/>
     </row>
-    <row r="35" customFormat="false" ht="29.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="5" t="n">
+    <row r="35" spans="1:5" ht="29.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="5">
         <v>45301</v>
       </c>
       <c r="B35" s="7"/>
@@ -789,8 +1065,8 @@
       <c r="D35" s="7"/>
       <c r="E35" s="7"/>
     </row>
-    <row r="36" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="5" t="n">
+    <row r="36" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="5">
         <v>45302</v>
       </c>
       <c r="B36" s="7" t="s">
@@ -802,8 +1078,8 @@
       <c r="D36" s="7"/>
       <c r="E36" s="7"/>
     </row>
-    <row r="37" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="9" t="n">
+    <row r="37" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="9">
         <v>45303</v>
       </c>
       <c r="B37" s="10" t="s">
@@ -819,189 +1095,189 @@
         <v>34</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="5" t="n">
-        <v>45304</v>
+    <row r="38" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="5">
+        <v>45329</v>
       </c>
       <c r="B38" s="7"/>
-      <c r="C38" s="7"/>
+      <c r="C38" s="7" t="s">
+        <v>37</v>
+      </c>
       <c r="D38" s="7"/>
       <c r="E38" s="7"/>
     </row>
-    <row r="39" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="5" t="n">
-        <v>45305</v>
+    <row r="39" spans="1:5" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="5">
+        <v>45330</v>
       </c>
       <c r="B39" s="7"/>
       <c r="C39" s="7"/>
       <c r="D39" s="7"/>
       <c r="E39" s="7"/>
     </row>
-    <row r="40" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="5" t="n">
-        <v>45306</v>
+    <row r="40" spans="1:5" ht="29.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="5">
+        <v>45331</v>
       </c>
       <c r="B40" s="7"/>
-      <c r="C40" s="7"/>
+      <c r="C40" s="7" t="s">
+        <v>36</v>
+      </c>
       <c r="D40" s="7"/>
       <c r="E40" s="7"/>
     </row>
-    <row r="41" customFormat="false" ht="29.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="5" t="n">
-        <v>45307</v>
+    <row r="41" spans="1:5" ht="29.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="5">
+        <v>45332</v>
       </c>
       <c r="B41" s="7"/>
-      <c r="C41" s="7"/>
+      <c r="C41" s="7" t="s">
+        <v>35</v>
+      </c>
       <c r="D41" s="7"/>
       <c r="E41" s="7"/>
     </row>
-    <row r="42" customFormat="false" ht="29.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="5" t="n">
-        <v>45308</v>
+    <row r="42" spans="1:5" ht="29.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="5">
+        <v>45333</v>
       </c>
       <c r="B42" s="7"/>
       <c r="C42" s="7"/>
       <c r="D42" s="7"/>
       <c r="E42" s="7"/>
     </row>
-    <row r="43" customFormat="false" ht="29.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="5" t="n">
-        <v>45309</v>
+    <row r="43" spans="1:5" ht="29.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="5">
+        <v>45334</v>
       </c>
       <c r="B43" s="7"/>
       <c r="C43" s="7"/>
       <c r="D43" s="7"/>
       <c r="E43" s="7"/>
     </row>
-    <row r="44" customFormat="false" ht="29.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A44" s="5" t="n">
-        <v>45310</v>
+    <row r="44" spans="1:5" ht="29.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="5">
+        <v>45335</v>
       </c>
       <c r="B44" s="7"/>
       <c r="C44" s="7"/>
       <c r="D44" s="7"/>
       <c r="E44" s="7"/>
     </row>
-    <row r="45" customFormat="false" ht="29.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A45" s="5" t="n">
-        <v>45311</v>
+    <row r="45" spans="1:5" ht="29.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="5">
+        <v>45336</v>
       </c>
       <c r="B45" s="7"/>
       <c r="C45" s="7"/>
       <c r="D45" s="7"/>
       <c r="E45" s="7"/>
     </row>
-    <row r="46" customFormat="false" ht="29.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A46" s="5" t="n">
-        <v>45312</v>
+    <row r="46" spans="1:5" ht="29.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="5">
+        <v>45337</v>
       </c>
       <c r="B46" s="7"/>
       <c r="C46" s="7"/>
       <c r="D46" s="7"/>
       <c r="E46" s="7"/>
     </row>
-    <row r="47" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A47" s="5" t="n">
-        <v>45313</v>
+    <row r="47" spans="1:5" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="5">
+        <v>45338</v>
       </c>
       <c r="B47" s="7"/>
       <c r="C47" s="7"/>
       <c r="D47" s="7"/>
       <c r="E47" s="7"/>
     </row>
-    <row r="48" customFormat="false" ht="29.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A48" s="5" t="n">
-        <v>45314</v>
+    <row r="48" spans="1:5" ht="29.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="5">
+        <v>45339</v>
       </c>
       <c r="B48" s="7"/>
       <c r="C48" s="7"/>
       <c r="D48" s="7"/>
       <c r="E48" s="7"/>
     </row>
-    <row r="49" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A49" s="5" t="n">
-        <v>45315</v>
+    <row r="49" spans="1:5" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="5">
+        <v>45340</v>
       </c>
       <c r="B49" s="7"/>
       <c r="C49" s="7"/>
       <c r="D49" s="7"/>
       <c r="E49" s="7"/>
     </row>
-    <row r="50" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A50" s="5" t="n">
-        <v>45316</v>
+    <row r="50" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="5">
+        <v>45341</v>
       </c>
       <c r="B50" s="7"/>
       <c r="C50" s="7"/>
       <c r="D50" s="7"/>
       <c r="E50" s="7"/>
     </row>
-    <row r="51" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A51" s="5" t="n">
-        <v>45317</v>
+    <row r="51" spans="1:5" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="5">
+        <v>45342</v>
       </c>
       <c r="B51" s="7"/>
       <c r="C51" s="7"/>
       <c r="D51" s="7"/>
       <c r="E51" s="7"/>
     </row>
-    <row r="52" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A52" s="5" t="n">
-        <v>45318</v>
+    <row r="52" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="5">
+        <v>45343</v>
       </c>
       <c r="B52" s="7"/>
       <c r="C52" s="7"/>
       <c r="D52" s="7"/>
       <c r="E52" s="7"/>
     </row>
-    <row r="53" customFormat="false" ht="30.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A53" s="5" t="n">
-        <v>45319</v>
+    <row r="53" spans="1:5" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="5">
+        <v>45344</v>
       </c>
       <c r="B53" s="7"/>
       <c r="C53" s="7"/>
       <c r="D53" s="7"/>
       <c r="E53" s="7"/>
     </row>
-    <row r="54" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A54" s="5" t="n">
-        <v>45320</v>
+    <row r="54" spans="1:5" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="5">
+        <v>45345</v>
       </c>
       <c r="B54" s="7"/>
       <c r="C54" s="7"/>
       <c r="D54" s="7"/>
       <c r="E54" s="7"/>
     </row>
-    <row r="55" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A55" s="5" t="n">
-        <v>45321</v>
+    <row r="55" spans="1:5" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="5">
+        <v>45346</v>
       </c>
       <c r="B55" s="7"/>
       <c r="C55" s="7"/>
       <c r="D55" s="7"/>
       <c r="E55" s="7"/>
     </row>
-    <row r="56" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A56" s="5" t="n">
-        <v>45322</v>
+    <row r="56" spans="1:5" ht="29.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="5">
+        <v>45347</v>
       </c>
       <c r="B56" s="7"/>
       <c r="C56" s="7"/>
       <c r="D56" s="7"/>
       <c r="E56" s="7"/>
     </row>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="B2:E2"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/Progress Report.xlsx
+++ b/Progress Report.xlsx
@@ -1,21 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ombad\OneDrive\Documents\GitHub\Veh_Safety_CAN_IoT\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B0AE56E-A46D-4FD3-9B8C-1BF358B27A1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="Calc"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -25,63 +20,63 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="38">
-  <si>
-    <t>Progress Report</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>Group Members</t>
-  </si>
-  <si>
-    <t>DD/MM/YYYY</t>
-  </si>
-  <si>
-    <t>Sameer Kalmegh</t>
-  </si>
-  <si>
-    <t>Om Badgujar</t>
-  </si>
-  <si>
-    <t>Payal Dukare</t>
-  </si>
-  <si>
-    <t>Sanket Lonkar</t>
-  </si>
-  <si>
-    <t>Circuit and  and also refer on refernce paper.</t>
-  </si>
-  <si>
-    <t>Circuit and  and also refer on refernce paper</t>
-  </si>
-  <si>
-    <t>Component Discussion</t>
-  </si>
-  <si>
-    <t>Interfacing of STM32F407 with LM35</t>
-  </si>
-  <si>
-    <t>Find Rain Water sensor(LM393) configuration with STM32F407.</t>
-  </si>
-  <si>
-    <t>Searching abot CAN protocol</t>
-  </si>
-  <si>
-    <t>IoT connection with ESP8266</t>
-  </si>
-  <si>
-    <t>Read CAN Protocol with STM32F407</t>
-  </si>
-  <si>
-    <t>Made a Block Diagram of Master and Slave Node. (Blueprint) and on git with name "Blockdiagram-1".</t>
-  </si>
-  <si>
-    <t>Search Component to preferd for our stm32 board and  contact with component dealer.</t>
-  </si>
-  <si>
-    <t>.........</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="40">
+  <si>
+    <t xml:space="preserve">Progress Report</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Group Members</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DD/MM/YYYY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sameer Kalmegh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Om Badgujar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Payal Dukare</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sanket Lonkar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Circuit and  and also refer on refernce paper.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Circuit and  and also refer on refernce paper</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Component Discussion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Interfacing of STM32F407 with LM35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find Rain Water sensor(LM393) configuration with STM32F407.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Searching abot CAN protocol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IoT connection with ESP8266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Read CAN Protocol with STM32F407</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Made a Block Diagram of Master and Slave Node. (Blueprint) and on git with name "Blockdiagram-1".</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Search Component to preferd for our stm32 board and  contact with component dealer.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">.........</t>
   </si>
   <si>
     <t xml:space="preserve">                                 ...........</t>
@@ -96,59 +91,66 @@
     <t xml:space="preserve">                             ...........</t>
   </si>
   <si>
-    <t>CAN protocol reference model layers ,CAN bus , recessive bits , dominant bus</t>
-  </si>
-  <si>
-    <t>CAN frame structure and CAN network topology</t>
-  </si>
-  <si>
-    <t>Read the datasheet of LM393 Rain water sensor &amp; pin configuration is done with STM board.</t>
-  </si>
-  <si>
-    <t>Read the obtainable value of LM393 with ADC .See the ADC and UART code.</t>
-  </si>
-  <si>
-    <t>Done the coding of LM393 Rain Water Sesor using ADC and UART And upload on Git.</t>
-  </si>
-  <si>
-    <t>reading can specification given by bosch and collecting info about tansmitter and reciever mcp 2551</t>
-  </si>
-  <si>
-    <t>Reading about temperature sensor LM35 and DS18B20 Water proof tempearature sensor</t>
-  </si>
-  <si>
-    <t>ADC and UART sensor code done</t>
-  </si>
-  <si>
-    <t>reading about can filter and logical characteristics</t>
-  </si>
-  <si>
-    <t>Merge the sensor code in Final_sens_intr directory.</t>
+    <t xml:space="preserve">CAN protocol reference model layers ,CAN bus , recessive bits , dominant bus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAN frame structure and CAN network topology</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Read the datasheet of LM393 Rain water sensor &amp; pin configuration is done with STM board.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Read the obtainable value of LM393 with ADC .See the ADC and UART code.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Done the coding of LM393 Rain Water Sesor using ADC and UART And upload on Git.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reading can specification given by bosch and collecting info about tansmitter and reciever mcp 2551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reading about temperature sensor LM35 and DS18B20 Water proof tempearature sensor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADC and UART sensor code done</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reading about can filter and logical characteristics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Merge the sensor code in Final_sens_intr directory.</t>
   </si>
   <si>
     <t xml:space="preserve">  Project Evaluation-2 and basic code of CAN communication is done with LED </t>
   </si>
   <si>
-    <t>Project Evolution -2</t>
-  </si>
-  <si>
-    <t>Rebuilt Tx-Rx code and put the Sensor code of Rain water in main code name as "CAN VERSION2".</t>
-  </si>
-  <si>
-    <t>Find the Bugg in CAN Tx - Rx code code name is "CAN VERSION1".</t>
-  </si>
-  <si>
-    <t>Work on CAN project .</t>
+    <t xml:space="preserve">Project Evolution -2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Work on CAN project .</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Working on how to transmiting data on can </t>
+  </si>
+  <si>
+    <t xml:space="preserve">working on how to receiving data on can </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find the Bugg in CAN Tx - Rx code code name is "CAN VERSION1".</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rebuilt Tx-Rx code and put the Sensor code of Rain water in main code name as "CAN VERSION2".</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -157,12 +159,28 @@
       <charset val="1"/>
     </font>
     <font>
-      <b/>
-      <i/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <i val="true"/>
       <sz val="20"/>
       <color rgb="FF002060"/>
       <name val="Bodoni MT"/>
       <family val="1"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="14"/>
@@ -172,7 +190,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b/>
+      <b val="true"/>
       <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -225,70 +243,100 @@
     </fill>
   </fills>
   <borders count="2">
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  <cellStyleXfs count="20">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
   <cellXfs count="11">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -347,340 +395,32 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="44546A"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4472C4"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="ED7D31"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="FFC000"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="70AD47"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0563C1"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="954F72"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
-</a:theme>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:E56"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B25" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D39" activeCellId="0" sqref="D39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.55859375" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="13.109375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="44.44140625" customWidth="1"/>
-    <col min="3" max="3" width="44.77734375" customWidth="1"/>
-    <col min="4" max="4" width="44.5546875" customWidth="1"/>
-    <col min="5" max="5" width="44.33203125" customWidth="1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="13.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="44.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="44.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="44.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="44.33"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="31.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" customFormat="false" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -689,18 +429,18 @@
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
     </row>
-    <row r="2" spans="1:5" ht="18" x14ac:dyDescent="0.35">
-      <c r="A2" s="4" t="s">
+    <row r="2" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-    </row>
-    <row r="3" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+    </row>
+    <row r="3" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
         <v>3</v>
       </c>
@@ -717,8 +457,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="5">
+    <row r="4" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="5" t="n">
         <v>45237</v>
       </c>
       <c r="B4" s="7" t="s">
@@ -734,8 +474,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="5">
+    <row r="5" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="5" t="n">
         <v>45238</v>
       </c>
       <c r="B5" s="7" t="s">
@@ -751,8 +491,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="5">
+    <row r="6" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="5" t="n">
         <v>45239</v>
       </c>
       <c r="B6" s="7"/>
@@ -760,8 +500,8 @@
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
     </row>
-    <row r="7" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="5">
+    <row r="7" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="5" t="n">
         <v>45240</v>
       </c>
       <c r="B7" s="7" t="s">
@@ -771,8 +511,8 @@
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
     </row>
-    <row r="8" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="5">
+    <row r="8" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="5" t="n">
         <v>45241</v>
       </c>
       <c r="B8" s="7"/>
@@ -782,8 +522,8 @@
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
     </row>
-    <row r="9" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="5">
+    <row r="9" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="5" t="n">
         <v>45242</v>
       </c>
       <c r="B9" s="7"/>
@@ -791,8 +531,8 @@
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
     </row>
-    <row r="10" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="5">
+    <row r="10" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="5" t="n">
         <v>45243</v>
       </c>
       <c r="B10" s="7"/>
@@ -802,8 +542,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="5">
+    <row r="11" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="5" t="n">
         <v>45244</v>
       </c>
       <c r="B11" s="7"/>
@@ -813,8 +553,8 @@
       </c>
       <c r="E11" s="7"/>
     </row>
-    <row r="12" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="5">
+    <row r="12" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="5" t="n">
         <v>45245</v>
       </c>
       <c r="B12" s="7" t="s">
@@ -830,8 +570,8 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="5">
+    <row r="13" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="5" t="n">
         <v>45246</v>
       </c>
       <c r="B13" s="7"/>
@@ -839,8 +579,8 @@
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
     </row>
-    <row r="14" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="5">
+    <row r="14" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="5" t="n">
         <v>45247</v>
       </c>
       <c r="B14" s="7"/>
@@ -848,8 +588,8 @@
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
     </row>
-    <row r="15" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="5">
+    <row r="15" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="5" t="n">
         <v>45248</v>
       </c>
       <c r="B15" s="7"/>
@@ -857,8 +597,8 @@
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
     </row>
-    <row r="16" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="5">
+    <row r="16" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="5" t="n">
         <v>45249</v>
       </c>
       <c r="B16" s="7"/>
@@ -866,8 +606,8 @@
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>
     </row>
-    <row r="17" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="5">
+    <row r="17" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="5" t="n">
         <v>45250</v>
       </c>
       <c r="B17" s="7"/>
@@ -877,8 +617,8 @@
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
     </row>
-    <row r="18" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="5">
+    <row r="18" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="5" t="n">
         <v>45251</v>
       </c>
       <c r="B18" s="7"/>
@@ -888,7 +628,7 @@
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
     </row>
-    <row r="19" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="5" t="s">
         <v>18</v>
       </c>
@@ -905,8 +645,8 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="5">
+    <row r="20" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="5" t="n">
         <v>45285</v>
       </c>
       <c r="B20" s="7" t="s">
@@ -916,8 +656,8 @@
       <c r="D20" s="7"/>
       <c r="E20" s="7"/>
     </row>
-    <row r="21" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="5">
+    <row r="21" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="5" t="n">
         <v>45286</v>
       </c>
       <c r="B21" s="7" t="s">
@@ -929,8 +669,8 @@
       <c r="D21" s="7"/>
       <c r="E21" s="7"/>
     </row>
-    <row r="22" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="5">
+    <row r="22" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="5" t="n">
         <v>45287</v>
       </c>
       <c r="B22" s="7"/>
@@ -940,8 +680,8 @@
       <c r="D22" s="7"/>
       <c r="E22" s="7"/>
     </row>
-    <row r="23" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="5">
+    <row r="23" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="5" t="n">
         <v>45288</v>
       </c>
       <c r="B23" s="7"/>
@@ -949,8 +689,8 @@
       <c r="D23" s="7"/>
       <c r="E23" s="7"/>
     </row>
-    <row r="24" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="5">
+    <row r="24" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A24" s="5" t="n">
         <v>45289</v>
       </c>
       <c r="B24" s="7"/>
@@ -960,8 +700,8 @@
       <c r="D24" s="7"/>
       <c r="E24" s="7"/>
     </row>
-    <row r="25" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="5">
+    <row r="25" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A25" s="5" t="n">
         <v>45290</v>
       </c>
       <c r="B25" s="7"/>
@@ -969,8 +709,8 @@
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
     </row>
-    <row r="26" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="5">
+    <row r="26" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A26" s="5" t="n">
         <v>45291</v>
       </c>
       <c r="B26" s="7"/>
@@ -978,8 +718,8 @@
       <c r="D26" s="7"/>
       <c r="E26" s="7"/>
     </row>
-    <row r="27" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="5">
+    <row r="27" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A27" s="5" t="n">
         <v>45292</v>
       </c>
       <c r="B27" s="7"/>
@@ -987,8 +727,8 @@
       <c r="D27" s="7"/>
       <c r="E27" s="7"/>
     </row>
-    <row r="28" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="5">
+    <row r="28" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A28" s="5" t="n">
         <v>45293</v>
       </c>
       <c r="B28" s="7"/>
@@ -996,8 +736,8 @@
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
     </row>
-    <row r="29" spans="1:5" ht="42.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="5">
+    <row r="29" customFormat="false" ht="42" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A29" s="5" t="n">
         <v>45294</v>
       </c>
       <c r="B29" s="7" t="s">
@@ -1009,8 +749,8 @@
       </c>
       <c r="E29" s="7"/>
     </row>
-    <row r="30" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="5">
+    <row r="30" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A30" s="5" t="n">
         <v>45296</v>
       </c>
       <c r="B30" s="7"/>
@@ -1018,8 +758,8 @@
       <c r="D30" s="7"/>
       <c r="E30" s="7"/>
     </row>
-    <row r="31" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="5">
+    <row r="31" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A31" s="5" t="n">
         <v>45297</v>
       </c>
       <c r="B31" s="7"/>
@@ -1027,8 +767,8 @@
       <c r="D31" s="7"/>
       <c r="E31" s="7"/>
     </row>
-    <row r="32" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="5">
+    <row r="32" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A32" s="5" t="n">
         <v>45298</v>
       </c>
       <c r="B32" s="7"/>
@@ -1038,8 +778,8 @@
       </c>
       <c r="E32" s="7"/>
     </row>
-    <row r="33" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="5">
+    <row r="33" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A33" s="5" t="n">
         <v>45299</v>
       </c>
       <c r="B33" s="7"/>
@@ -1047,8 +787,8 @@
       <c r="D33" s="7"/>
       <c r="E33" s="7"/>
     </row>
-    <row r="34" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="5">
+    <row r="34" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A34" s="5" t="n">
         <v>45300</v>
       </c>
       <c r="B34" s="7"/>
@@ -1056,8 +796,8 @@
       <c r="D34" s="7"/>
       <c r="E34" s="7"/>
     </row>
-    <row r="35" spans="1:5" ht="29.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="5">
+    <row r="35" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A35" s="5" t="n">
         <v>45301</v>
       </c>
       <c r="B35" s="7"/>
@@ -1065,8 +805,8 @@
       <c r="D35" s="7"/>
       <c r="E35" s="7"/>
     </row>
-    <row r="36" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="5">
+    <row r="36" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A36" s="5" t="n">
         <v>45302</v>
       </c>
       <c r="B36" s="7" t="s">
@@ -1078,8 +818,8 @@
       <c r="D36" s="7"/>
       <c r="E36" s="7"/>
     </row>
-    <row r="37" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="9">
+    <row r="37" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A37" s="9" t="n">
         <v>45303</v>
       </c>
       <c r="B37" s="10" t="s">
@@ -1095,50 +835,54 @@
         <v>34</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="5">
+    <row r="38" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A38" s="5" t="n">
         <v>45329</v>
       </c>
       <c r="B38" s="7"/>
       <c r="C38" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="D38" s="7"/>
+        <v>35</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>36</v>
+      </c>
       <c r="E38" s="7"/>
     </row>
-    <row r="39" spans="1:5" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="5">
+    <row r="39" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A39" s="5" t="n">
         <v>45330</v>
       </c>
       <c r="B39" s="7"/>
       <c r="C39" s="7"/>
-      <c r="D39" s="7"/>
+      <c r="D39" s="7" t="s">
+        <v>37</v>
+      </c>
       <c r="E39" s="7"/>
     </row>
-    <row r="40" spans="1:5" ht="29.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="5">
+    <row r="40" customFormat="false" ht="29.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A40" s="5" t="n">
         <v>45331</v>
       </c>
       <c r="B40" s="7"/>
       <c r="C40" s="7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D40" s="7"/>
       <c r="E40" s="7"/>
     </row>
-    <row r="41" spans="1:5" ht="29.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="5">
+    <row r="41" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A41" s="5" t="n">
         <v>45332</v>
       </c>
       <c r="B41" s="7"/>
       <c r="C41" s="7" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D41" s="7"/>
       <c r="E41" s="7"/>
     </row>
-    <row r="42" spans="1:5" ht="29.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="5">
+    <row r="42" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A42" s="5" t="n">
         <v>45333</v>
       </c>
       <c r="B42" s="7"/>
@@ -1146,8 +890,8 @@
       <c r="D42" s="7"/>
       <c r="E42" s="7"/>
     </row>
-    <row r="43" spans="1:5" ht="29.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="5">
+    <row r="43" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A43" s="5" t="n">
         <v>45334</v>
       </c>
       <c r="B43" s="7"/>
@@ -1155,8 +899,8 @@
       <c r="D43" s="7"/>
       <c r="E43" s="7"/>
     </row>
-    <row r="44" spans="1:5" ht="29.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="5">
+    <row r="44" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A44" s="5" t="n">
         <v>45335</v>
       </c>
       <c r="B44" s="7"/>
@@ -1164,8 +908,8 @@
       <c r="D44" s="7"/>
       <c r="E44" s="7"/>
     </row>
-    <row r="45" spans="1:5" ht="29.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="5">
+    <row r="45" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A45" s="5" t="n">
         <v>45336</v>
       </c>
       <c r="B45" s="7"/>
@@ -1173,8 +917,8 @@
       <c r="D45" s="7"/>
       <c r="E45" s="7"/>
     </row>
-    <row r="46" spans="1:5" ht="29.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="5">
+    <row r="46" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A46" s="5" t="n">
         <v>45337</v>
       </c>
       <c r="B46" s="7"/>
@@ -1182,8 +926,8 @@
       <c r="D46" s="7"/>
       <c r="E46" s="7"/>
     </row>
-    <row r="47" spans="1:5" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="5">
+    <row r="47" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A47" s="5" t="n">
         <v>45338</v>
       </c>
       <c r="B47" s="7"/>
@@ -1191,8 +935,8 @@
       <c r="D47" s="7"/>
       <c r="E47" s="7"/>
     </row>
-    <row r="48" spans="1:5" ht="29.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="5">
+    <row r="48" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A48" s="5" t="n">
         <v>45339</v>
       </c>
       <c r="B48" s="7"/>
@@ -1200,8 +944,8 @@
       <c r="D48" s="7"/>
       <c r="E48" s="7"/>
     </row>
-    <row r="49" spans="1:5" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="5">
+    <row r="49" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A49" s="5" t="n">
         <v>45340</v>
       </c>
       <c r="B49" s="7"/>
@@ -1209,8 +953,8 @@
       <c r="D49" s="7"/>
       <c r="E49" s="7"/>
     </row>
-    <row r="50" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="5">
+    <row r="50" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A50" s="5" t="n">
         <v>45341</v>
       </c>
       <c r="B50" s="7"/>
@@ -1218,8 +962,8 @@
       <c r="D50" s="7"/>
       <c r="E50" s="7"/>
     </row>
-    <row r="51" spans="1:5" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="5">
+    <row r="51" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A51" s="5" t="n">
         <v>45342</v>
       </c>
       <c r="B51" s="7"/>
@@ -1227,8 +971,8 @@
       <c r="D51" s="7"/>
       <c r="E51" s="7"/>
     </row>
-    <row r="52" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="5">
+    <row r="52" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A52" s="5" t="n">
         <v>45343</v>
       </c>
       <c r="B52" s="7"/>
@@ -1236,8 +980,8 @@
       <c r="D52" s="7"/>
       <c r="E52" s="7"/>
     </row>
-    <row r="53" spans="1:5" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="5">
+    <row r="53" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A53" s="5" t="n">
         <v>45344</v>
       </c>
       <c r="B53" s="7"/>
@@ -1245,8 +989,8 @@
       <c r="D53" s="7"/>
       <c r="E53" s="7"/>
     </row>
-    <row r="54" spans="1:5" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="5">
+    <row r="54" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A54" s="5" t="n">
         <v>45345</v>
       </c>
       <c r="B54" s="7"/>
@@ -1254,8 +998,8 @@
       <c r="D54" s="7"/>
       <c r="E54" s="7"/>
     </row>
-    <row r="55" spans="1:5" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="5">
+    <row r="55" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A55" s="5" t="n">
         <v>45346</v>
       </c>
       <c r="B55" s="7"/>
@@ -1263,8 +1007,8 @@
       <c r="D55" s="7"/>
       <c r="E55" s="7"/>
     </row>
-    <row r="56" spans="1:5" ht="29.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="5">
+    <row r="56" customFormat="false" ht="29.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A56" s="5" t="n">
         <v>45347</v>
       </c>
       <c r="B56" s="7"/>
@@ -1277,7 +1021,12 @@
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="B2:E2"/>
   </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>